--- a/file/import_customer_template.xlsx
+++ b/file/import_customer_template.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="28502"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="28315"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Jay/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yanjiankai/Documents/jmeter/JmeterScript/file/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="5300" yWindow="460" windowWidth="18060" windowHeight="15540" tabRatio="500"/>
+    <workbookView xWindow="5300" yWindow="460" windowWidth="18060" windowHeight="14240" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="25">
   <si>
     <t>姓名</t>
   </si>
@@ -108,11 +108,11 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="DengXian"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -120,7 +120,13 @@
       <u/>
       <sz val="12"/>
       <color theme="10"/>
-      <name val="Calibri"/>
+      <name val="DengXian"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="DengXian"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -152,8 +158,8 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="超链接" xfId="1" builtinId="8"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium7"/>
@@ -428,10 +434,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I4"/>
+  <dimension ref="A1:I5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H10" sqref="H10"/>
+      <selection activeCell="A5" sqref="A5:I5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -559,11 +565,42 @@
         <v>23</v>
       </c>
     </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B5">
+        <v>13000000002</v>
+      </c>
+      <c r="C5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E5" t="s">
+        <v>19</v>
+      </c>
+      <c r="F5" t="s">
+        <v>20</v>
+      </c>
+      <c r="G5">
+        <v>34</v>
+      </c>
+      <c r="H5" s="2">
+        <v>33607</v>
+      </c>
+      <c r="I5" t="s">
+        <v>23</v>
+      </c>
+    </row>
   </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
   <hyperlinks>
     <hyperlink ref="D2" r:id="rId1"/>
     <hyperlink ref="D3" r:id="rId2"/>
     <hyperlink ref="D4" r:id="rId3"/>
+    <hyperlink ref="D5" r:id="rId4"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/file/import_customer_template.xlsx
+++ b/file/import_customer_template.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="28315"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="28209"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yanjiankai/Documents/jmeter/JmeterScript/file/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lori/Desktop/00_i_JmeterScript/file/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="5300" yWindow="460" windowWidth="18060" windowHeight="14240" tabRatio="500"/>
+    <workbookView xWindow="920" yWindow="460" windowWidth="24680" windowHeight="15540" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="25">
   <si>
     <t>姓名</t>
   </si>
@@ -114,6 +114,7 @@
       <color theme="1"/>
       <name val="DengXian"/>
       <family val="2"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -434,10 +435,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I5"/>
+  <dimension ref="A1:I6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5:I5"/>
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -594,6 +595,32 @@
         <v>23</v>
       </c>
     </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B6">
+        <v>13000000002</v>
+      </c>
+      <c r="C6" t="s">
+        <v>11</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E6" t="s">
+        <v>19</v>
+      </c>
+      <c r="F6" t="s">
+        <v>20</v>
+      </c>
+      <c r="G6">
+        <v>34</v>
+      </c>
+      <c r="H6" s="2">
+        <v>33607</v>
+      </c>
+      <c r="I6" t="s">
+        <v>23</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <hyperlinks>
@@ -601,6 +628,7 @@
     <hyperlink ref="D3" r:id="rId2"/>
     <hyperlink ref="D4" r:id="rId3"/>
     <hyperlink ref="D5" r:id="rId4"/>
+    <hyperlink ref="D6" r:id="rId5"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
